--- a/data/trans_camb/P12B1_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 27,18</t>
+          <t>-5,3; 1,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 25,41</t>
+          <t>-3,57; 4,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 13,15</t>
+          <t>-3,14; 5,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 16,62</t>
+          <t>-3,21; 2,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 13,72</t>
+          <t>-4,54; -0,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 11,26</t>
+          <t>-1,55; 4,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 0,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 1,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 3,79</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>-39,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,92%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,9%</t>
+          <t>-19,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,0%</t>
+          <t>-81,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,36%</t>
+          <t>58,85%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-30,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-28,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44,3%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,15; 145,87</t>
+          <t>-89,64; 140,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,79; 127,08</t>
+          <t>-72,01; 308,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,64; 116,18</t>
+          <t>-61,04; 337,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,66; 146,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 74,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 56,15</t>
+          <t>-54,3; 413,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-77,9; 68,8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-77,64; 116,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 244,05</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 43,26</t>
+          <t>-3,1; 5,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 43,2</t>
+          <t>-4,23; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 34,52</t>
+          <t>-4,43; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 36,28</t>
+          <t>-1,67; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 30,51</t>
+          <t>-1,1; 5,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 30,01</t>
+          <t>-3,37; 1,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 3,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 1,66</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>68,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>139,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>-45,62%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-23,59%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 290,51</t>
+          <t>-68,23; 550,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 224,05</t>
+          <t>-83,96; 421,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 182,05</t>
+          <t>-93,44; 533,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 178,87</t>
+          <t>-78,77; 726,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 133,43</t>
+          <t>-64,5; 1176,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 129,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 323,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,3; 338,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-81,72; 171,17</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-14,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 17,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 100,0</t>
+          <t>0,0; 13,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 39,61</t>
+          <t>0,0; 14,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 63,52</t>
+          <t>0,0; 10,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,03</t>
         </is>
       </c>
     </row>
@@ -989,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1009,12 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>184,89%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 19,25</t>
+          <t>-2,78; 2,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 23,42</t>
+          <t>-2,68; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 21,34</t>
+          <t>-2,02; 3,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 23,07</t>
+          <t>-1,5; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 13,64</t>
+          <t>-1,4; 2,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 16,28</t>
+          <t>-1,37; 2,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 1,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 1,9</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 2,36</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 89,91</t>
+          <t>-64,1; 159,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 115,28</t>
+          <t>-63,57; 151,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 111,11</t>
+          <t>-54,26; 193,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 112,41</t>
+          <t>-60,55; 280,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 61,42</t>
+          <t>-54,84; 301,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 72,43</t>
+          <t>-53,66; 312,19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 101,06</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-42,42; 128,28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-32,55; 157,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
